--- a/Docs/ISIS1225 - Tablas de Datos Lab 4-5 (maquina 1).xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4-5 (maquina 1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KEVIN\UNIVERSIDAD\Trabajos\2do semestre\Estructura de datos y algoritmos\Retos\Reto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEBD3D18-DBCC-494B-9E1B-9D93992A8FC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44CBFDB-EBE7-4065-BAA3-B7A1AC649B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -92,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,56 +151,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -498,6 +439,56 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -570,7 +561,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -637,7 +628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -695,7 +686,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -724,7 +715,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -775,34 +766,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>453.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>1833.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>7369.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>30005.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>124677.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>525875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,8 +853,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -892,7 +882,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -943,34 +933,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>484.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1895.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7921.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>30015.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>127715.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>563609.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +1049,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1074,7 +1064,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1103,7 +1093,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1154,34 +1144,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>13171.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>64302.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>290756.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1268,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1329,34 +1319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>161.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>291.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>598.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>1223.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>2770.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>5416.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>12485.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,7 +1443,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1504,34 +1494,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>36.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>72.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>291.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>614.58000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>1286.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>2661.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>5640.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,6 +1548,8 @@
         <c:axId val="696671312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="512000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1631,7 +1623,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1669,7 +1661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1680,6 +1672,8 @@
         <c:axId val="1833162896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1753,7 +1747,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1791,7 +1785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1833,7 +1827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1870,7 +1864,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1879,7 +1873,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1946,7 +1940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2014,7 +2008,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2043,7 +2037,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2094,34 +2088,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>48843.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>438070.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2175,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2210,7 +2204,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2261,34 +2255,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>35526.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>290713.53999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,7 +2342,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2377,7 +2371,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2428,34 +2422,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1817.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>9713.5400000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>46067.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>205161.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,7 +2517,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2552,7 +2546,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2603,34 +2597,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>2192.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>8927.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>41957.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>179630.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>270</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2692,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2727,7 +2721,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2778,34 +2772,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>296.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>1067.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>4239.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>16739.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>67119.789999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>270791.65999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,6 +2826,8 @@
         <c:axId val="696671312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="64000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2905,7 +2901,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2943,7 +2939,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2954,6 +2950,8 @@
         <c:axId val="1833162896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3027,7 +3025,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3065,7 +3063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -3107,7 +3105,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3144,7 +3142,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3153,7 +3151,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3220,7 +3218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3278,7 +3276,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3307,7 +3305,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3358,34 +3356,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>453.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>1833.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>7369.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>30005.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>124677.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>525875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3445,7 +3443,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3474,7 +3472,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3525,34 +3523,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>48843.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>438070.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,6 +3577,8 @@
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="64000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3652,7 +3652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3690,7 +3690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3701,6 +3701,8 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3769,7 +3771,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3807,7 +3809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3849,7 +3851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3886,7 +3888,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3895,7 +3897,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3957,7 +3959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4015,7 +4017,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4044,7 +4046,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4095,34 +4097,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>484.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1895.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7921.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>30015.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>127715.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>563609.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4182,7 +4184,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4211,7 +4213,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4262,34 +4264,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>35526.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>290713.53999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,6 +4318,8 @@
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="64000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4389,7 +4393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,7 +4431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4438,6 +4442,7 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4506,7 +4511,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4544,7 +4549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4586,7 +4591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4623,7 +4628,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4632,7 +4637,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4694,7 +4699,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4752,7 +4757,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4781,7 +4786,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4832,34 +4837,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>13171.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>64302.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>290756.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4924,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4948,7 +4953,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4999,34 +5004,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1817.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>9713.5400000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>46067.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>205161.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5053,6 +5058,7 @@
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5126,7 +5132,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5164,7 +5170,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5175,6 +5181,7 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5243,7 +5250,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5281,7 +5288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5323,7 +5330,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5360,7 +5367,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5369,7 +5376,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5439,7 +5446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5526,7 +5533,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5577,34 +5584,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>161.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>291.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>598.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>1223.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>2770.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>5416.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>12485.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5664,7 +5671,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5693,7 +5700,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5744,34 +5751,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>2192.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>8927.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>41957.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>179630.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>270</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5798,6 +5805,8 @@
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="512000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5871,7 +5880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5909,7 +5918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5920,6 +5929,7 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5988,7 +5998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6026,7 +6036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6068,7 +6078,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6105,7 +6115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6114,7 +6124,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6184,7 +6194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6242,8 +6252,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6272,7 +6281,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6323,34 +6332,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>36.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>72.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>291.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>614.58000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>1286.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>2661.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>5640.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6410,8 +6419,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6440,7 +6448,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6491,34 +6499,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>296.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>1067.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>4239.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>16739.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>67119.789999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>270791.65999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6545,6 +6553,8 @@
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="512000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6618,7 +6628,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6656,7 +6666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -6667,6 +6677,8 @@
         <c:axId val="1328121328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6735,7 +6747,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6773,7 +6785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6815,7 +6827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6852,7 +6864,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -10759,7 +10771,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="142" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10770,7 +10782,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10781,7 +10793,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10792,7 +10804,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10803,7 +10815,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10814,7 +10826,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10825,7 +10837,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10858,7 +10870,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9303644" cy="6077218"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10891,7 +10903,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10924,7 +10936,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10957,7 +10969,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10990,7 +11002,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11023,7 +11035,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9308171" cy="6078963"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11060,21 +11072,21 @@
     <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A14:F24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="Quick Sort [ms]" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{21628D13-D0BA-41D1-8E51-AB02437FBDE5}" name="Merge Sort [ms]" dataDxfId="0"/>
   </tableColumns>
@@ -11083,7 +11095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11381,20 +11393,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.1171875" customWidth="1"/>
+    <col min="5" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -11414,224 +11426,207 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="4">
-        <v>15.7</v>
+        <v>453.13</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>484.36</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>31.25</v>
       </c>
       <c r="E2" s="5">
-        <v>20</v>
+        <v>31.25</v>
       </c>
       <c r="F2" s="5">
-        <v>60</v>
+        <v>36.46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>1833.33</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>1895.83</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+        <v>13171.88</v>
       </c>
       <c r="E3" s="5">
-        <v>40</v>
+        <v>62.5</v>
       </c>
       <c r="F3" s="5">
-        <v>90</v>
+        <v>72.92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>45</v>
+        <v>7369.8</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+        <v>7921.86</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>64302.83</v>
       </c>
       <c r="E4" s="5">
-        <v>60</v>
+        <v>161.46</v>
       </c>
       <c r="F4" s="5">
-        <v>120</v>
+        <v>156.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>60</v>
+        <v>30005.21</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>30015.21</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>290756.63</v>
       </c>
       <c r="E5" s="5">
-        <v>80</v>
+        <v>291.67</v>
       </c>
       <c r="F5" s="5">
-        <v>150</v>
+        <v>291.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>75</v>
+        <v>124677.08</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>127715.63</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>300000</v>
       </c>
       <c r="E6" s="5">
-        <v>100</v>
+        <v>598.96</v>
       </c>
       <c r="F6" s="5">
-        <v>180</v>
+        <v>614.58000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
       <c r="B7" s="4">
-        <v>90</v>
+        <v>525875</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>563609.36</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>300000</v>
       </c>
       <c r="E7" s="5">
-        <v>120</v>
+        <v>1223.96</v>
       </c>
       <c r="F7" s="5">
-        <v>210</v>
+        <v>1286.46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
       <c r="B8" s="4">
-        <v>105</v>
+        <v>600000</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>600000</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>300000</v>
       </c>
       <c r="E8" s="5">
-        <v>140</v>
+        <v>2770.83</v>
       </c>
       <c r="F8" s="5">
-        <v>240</v>
+        <v>2661.46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
       <c r="B9" s="4">
-        <v>120</v>
+        <v>600000</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <v>600000</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>300000</v>
       </c>
       <c r="E9" s="5">
-        <v>160</v>
+        <v>5416.67</v>
       </c>
       <c r="F9" s="5">
-        <v>270</v>
+        <v>5640.63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
       <c r="B10" s="4">
-        <v>135</v>
+        <v>600000</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <v>600000</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>300000</v>
       </c>
       <c r="E10" s="5">
-        <v>180</v>
+        <v>12485.33</v>
       </c>
       <c r="F10" s="5">
-        <v>300</v>
+        <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
       <c r="B11" s="4">
-        <v>150</v>
+        <v>600000</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <v>600000</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <v>300000</v>
       </c>
       <c r="E11" s="5">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="F11" s="5">
-        <v>330</v>
+        <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -11651,221 +11646,204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
       <c r="B15" s="4">
-        <v>50</v>
+        <v>48843.75</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>35526.04</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>1817.71</v>
       </c>
       <c r="E15" s="5">
-        <v>30</v>
+        <v>2192.71</v>
       </c>
       <c r="F15" s="5">
-        <v>70</v>
+        <v>296.88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
       <c r="B16" s="4">
-        <v>60</v>
+        <v>438070.31</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>290713.53999999998</v>
       </c>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>9713.5400000000009</v>
       </c>
       <c r="E16" s="5">
-        <v>60</v>
+        <v>8927.08</v>
       </c>
       <c r="F16" s="5">
-        <v>90</v>
+        <v>1067.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
       <c r="B17" s="4">
-        <v>70</v>
+        <v>500000</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
+        <v>300000</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+        <v>46067.71</v>
       </c>
       <c r="E17" s="5">
-        <v>90</v>
+        <v>41957.08</v>
       </c>
       <c r="F17" s="5">
-        <v>110</v>
+        <v>4239.58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
       <c r="B18" s="4">
-        <v>80</v>
+        <v>500000</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>300000</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <v>205161.58</v>
       </c>
       <c r="E18" s="5">
-        <v>120</v>
+        <v>179630.21</v>
       </c>
       <c r="F18" s="5">
-        <v>130</v>
+        <v>16739.57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
       <c r="B19" s="4">
-        <v>90</v>
+        <v>500000</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>300000</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <v>300000</v>
       </c>
       <c r="E19" s="5">
-        <v>150</v>
+        <v>200000</v>
       </c>
       <c r="F19" s="5">
-        <v>150</v>
+        <v>67119.789999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
       <c r="B20" s="4">
-        <v>100</v>
+        <v>500000</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <v>300000</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
+        <v>300000</v>
       </c>
       <c r="E20" s="5">
-        <v>180</v>
+        <v>200000</v>
       </c>
       <c r="F20" s="5">
-        <v>170</v>
+        <v>270791.65999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
       <c r="B21" s="4">
-        <v>110</v>
+        <v>500000</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <v>300000</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
+        <v>300000</v>
       </c>
       <c r="E21" s="5">
-        <v>210</v>
+        <v>200000</v>
       </c>
       <c r="F21" s="5">
-        <v>190</v>
+        <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
       <c r="B22" s="4">
-        <v>120</v>
+        <v>500000</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <v>300000</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
+        <v>300000</v>
       </c>
       <c r="E22" s="5">
-        <v>240</v>
+        <v>200000</v>
       </c>
       <c r="F22" s="5">
-        <v>210</v>
+        <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
       <c r="B23" s="4">
-        <v>130</v>
+        <v>500000</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <v>300000</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
+        <v>300000</v>
       </c>
       <c r="E23" s="5">
-        <v>270</v>
+        <v>200000</v>
       </c>
       <c r="F23" s="5">
-        <v>230</v>
+        <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
       <c r="B24" s="4">
-        <v>140</v>
+        <v>500000</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
+        <v>300000</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
+        <v>300000</v>
       </c>
       <c r="E24" s="5">
-        <v>300</v>
+        <v>200000</v>
       </c>
       <c r="F24" s="5">
-        <v>250</v>
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -11878,6 +11856,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c10596efcc8303131ba000bf7988b65d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88645b4f568d2e9f6d2a1da3b5a5f323" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12088,34 +12081,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12130,4 +12096,31 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>